--- a/individual_results/avey/490.xlsx
+++ b/individual_results/avey/490.xlsx
@@ -576,7 +576,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="J2" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>1</v>
@@ -588,7 +588,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="O2" t="n">
         <v>0.5</v>
@@ -600,7 +600,7 @@
         <v>0.4</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -649,7 +649,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0.5</v>
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="O3" t="n">
         <v>1</v>
@@ -673,7 +673,7 @@
         <v>1</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -719,9 +719,7 @@
       <c r="I4" t="n">
         <v>0.8</v>
       </c>
-      <c r="J4" t="n">
-        <v>0.6666666666666666</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="n">
         <v>0.6666666666666666</v>
       </c>
@@ -730,7 +728,7 @@
       </c>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="O4" t="n">
         <v>0.6666666666666666</v>
@@ -741,7 +739,9 @@
       <c r="Q4" t="n">
         <v>0.5714285714285715</v>
       </c>
-      <c r="R4" t="inlineStr"/>
+      <c r="R4" t="n">
+        <v>0.6666666666666666</v>
+      </c>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="n">
         <v>0.6666666666666666</v>
@@ -784,9 +784,7 @@
       <c r="I5" t="n">
         <v>0.9090909090909091</v>
       </c>
-      <c r="J5" t="n">
-        <v>0.8333333333333334</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="n">
         <v>0.5555555555555556</v>
       </c>
@@ -795,7 +793,7 @@
       </c>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="n">
-        <v>0.9090909090909091</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="O5" t="n">
         <v>0.8333333333333334</v>
@@ -806,7 +804,9 @@
       <c r="Q5" t="n">
         <v>0.7692307692307692</v>
       </c>
-      <c r="R5" t="inlineStr"/>
+      <c r="R5" t="n">
+        <v>0.5555555555555556</v>
+      </c>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="n">
         <v>0.5555555555555556</v>
@@ -852,7 +852,7 @@
         <v>0.6885288809404666</v>
       </c>
       <c r="J6" t="n">
-        <v>0.6590018048024133</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0.2754115523761866</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0.6590018048024133</v>
+        <v>0.52129602861432</v>
       </c>
       <c r="O6" t="n">
         <v>0.631251450669265</v>
@@ -876,7 +876,7 @@
         <v>0.58688267143572</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>0.2754115523761866</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -998,7 +998,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" t="b">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" t="b">
         <v>0</v>
@@ -1133,9 +1133,7 @@
       <c r="I10" t="n">
         <v>3</v>
       </c>
-      <c r="J10" t="n">
-        <v>2</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
